--- a/natmiOut/OldD2/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H2">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I2">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J2">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.11164899610158</v>
+        <v>3.1122635</v>
       </c>
       <c r="N2">
-        <v>3.11164899610158</v>
+        <v>6.224527</v>
       </c>
       <c r="O2">
-        <v>0.2934421572218294</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P2">
-        <v>0.2934421572218294</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q2">
-        <v>13.94442328270755</v>
+        <v>13.9906794898265</v>
       </c>
       <c r="R2">
-        <v>13.94442328270755</v>
+        <v>55.962717959306</v>
       </c>
       <c r="S2">
-        <v>0.04035622969769365</v>
+        <v>0.03595626356624027</v>
       </c>
       <c r="T2">
-        <v>0.04035622969769365</v>
+        <v>0.02244811470492009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H3">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I3">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J3">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.73417441399742</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N3">
-        <v>2.73417441399742</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O3">
-        <v>0.2578446474102063</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P3">
-        <v>0.2578446474102063</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q3">
-        <v>12.25282331178598</v>
+        <v>13.54813958808733</v>
       </c>
       <c r="R3">
-        <v>12.25282331178598</v>
+        <v>81.28883752852398</v>
       </c>
       <c r="S3">
-        <v>0.03546060973557016</v>
+        <v>0.03481892914605844</v>
       </c>
       <c r="T3">
-        <v>0.03546060973557016</v>
+        <v>0.03260708585306438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H4">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I4">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J4">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.71057019711211</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N4">
-        <v>1.71057019711211</v>
+        <v>0.049457</v>
       </c>
       <c r="O4">
-        <v>0.1613142772044078</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P4">
-        <v>0.1613142772044078</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q4">
-        <v>7.665683023117258</v>
+        <v>0.07410866030766665</v>
       </c>
       <c r="R4">
-        <v>7.665683023117258</v>
+        <v>0.444651961846</v>
       </c>
       <c r="S4">
-        <v>0.02218507417615937</v>
+        <v>0.0001904604079095001</v>
       </c>
       <c r="T4">
-        <v>0.02218507417615937</v>
+        <v>0.0001783615701178953</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H5">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I5">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J5">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.04756672882646</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N5">
-        <v>3.04756672882646</v>
+        <v>0.213661</v>
       </c>
       <c r="O5">
-        <v>0.2873989181635564</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P5">
-        <v>0.2873989181635564</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q5">
-        <v>13.65724749234064</v>
+        <v>0.3201595420263333</v>
       </c>
       <c r="R5">
-        <v>13.65724749234064</v>
+        <v>1.920957252158</v>
       </c>
       <c r="S5">
-        <v>0.03952512095087042</v>
+        <v>0.0008228149951341913</v>
       </c>
       <c r="T5">
-        <v>0.03952512095087042</v>
+        <v>0.0007705463621521651</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.416662286917729</v>
+        <v>4.495339</v>
       </c>
       <c r="H6">
-        <v>0.416662286917729</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I6">
-        <v>0.01278681305501845</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J6">
-        <v>0.01278681305501845</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.11164899610158</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N6">
-        <v>3.11164899610158</v>
+        <v>5.291263</v>
       </c>
       <c r="O6">
-        <v>0.2934421572218294</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P6">
-        <v>0.2934421572218294</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q6">
-        <v>1.29650678680094</v>
+        <v>7.928673641052332</v>
       </c>
       <c r="R6">
-        <v>1.29650678680094</v>
+        <v>47.57204184631399</v>
       </c>
       <c r="S6">
-        <v>0.003752190006856865</v>
+        <v>0.02037681439101532</v>
       </c>
       <c r="T6">
-        <v>0.003752190006856865</v>
+        <v>0.01908239433420396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.416662286917729</v>
+        <v>4.495339</v>
       </c>
       <c r="H7">
-        <v>0.416662286917729</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I7">
-        <v>0.01278681305501845</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J7">
-        <v>0.01278681305501845</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.73417441399742</v>
+        <v>3.0507295</v>
       </c>
       <c r="N7">
-        <v>2.73417441399742</v>
+        <v>6.101459</v>
       </c>
       <c r="O7">
-        <v>0.2578446474102063</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P7">
-        <v>0.2578446474102063</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q7">
-        <v>1.139227364168107</v>
+        <v>13.7140632998005</v>
       </c>
       <c r="R7">
-        <v>1.139227364168107</v>
+        <v>54.85625319920199</v>
       </c>
       <c r="S7">
-        <v>0.003297011303671455</v>
+        <v>0.03524535566198183</v>
       </c>
       <c r="T7">
-        <v>0.003297011303671455</v>
+        <v>0.02200428265462854</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H8">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I8">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J8">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.71057019711211</v>
+        <v>3.1122635</v>
       </c>
       <c r="N8">
-        <v>1.71057019711211</v>
+        <v>6.224527</v>
       </c>
       <c r="O8">
-        <v>0.1613142772044078</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P8">
-        <v>0.1613142772044078</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q8">
-        <v>0.7127300902620421</v>
+        <v>1.441277815217167</v>
       </c>
       <c r="R8">
-        <v>0.7127300902620421</v>
+        <v>8.647666891303</v>
       </c>
       <c r="S8">
-        <v>0.002062695505718187</v>
+        <v>0.003704106368372395</v>
       </c>
       <c r="T8">
-        <v>0.002062695505718187</v>
+        <v>0.003468806115654873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H9">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I9">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J9">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.04756672882646</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N9">
-        <v>3.04756672882646</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O9">
-        <v>0.2873989181635564</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P9">
-        <v>0.2873989181635564</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q9">
-        <v>1.269806122767215</v>
+        <v>1.395688682595777</v>
       </c>
       <c r="R9">
-        <v>1.269806122767215</v>
+        <v>12.561198143362</v>
       </c>
       <c r="S9">
-        <v>0.003674916238771943</v>
+        <v>0.003586941589529243</v>
       </c>
       <c r="T9">
-        <v>0.003674916238771943</v>
+        <v>0.005038626196791606</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.76524644466899</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H10">
-        <v>6.76524644466899</v>
+        <v>1.389289</v>
       </c>
       <c r="I10">
-        <v>0.2076164420808054</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J10">
-        <v>0.2076164420808054</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.11164899610158</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N10">
-        <v>3.11164899610158</v>
+        <v>0.049457</v>
       </c>
       <c r="O10">
-        <v>0.2934421572218294</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P10">
-        <v>0.2934421572218294</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q10">
-        <v>21.05107230793405</v>
+        <v>0.007634451785888888</v>
       </c>
       <c r="R10">
-        <v>21.05107230793405</v>
+        <v>0.068710066073</v>
       </c>
       <c r="S10">
-        <v>0.06092341663891254</v>
+        <v>1.962065965393499E-05</v>
       </c>
       <c r="T10">
-        <v>0.06092341663891254</v>
+        <v>2.756141053961901E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.76524644466899</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H11">
-        <v>6.76524644466899</v>
+        <v>1.389289</v>
       </c>
       <c r="I11">
-        <v>0.2076164420808054</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J11">
-        <v>0.2076164420808054</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.73417441399742</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N11">
-        <v>2.73417441399742</v>
+        <v>0.213661</v>
       </c>
       <c r="O11">
-        <v>0.2578446474102063</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P11">
-        <v>0.2578446474102063</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q11">
-        <v>18.49736373340096</v>
+        <v>0.03298187522544445</v>
       </c>
       <c r="R11">
-        <v>18.49736373340096</v>
+        <v>0.296836877029</v>
       </c>
       <c r="S11">
-        <v>0.05353278830488679</v>
+        <v>8.47639315429445E-05</v>
       </c>
       <c r="T11">
-        <v>0.05353278830488679</v>
+        <v>0.0001190690607458102</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.76524644466899</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H12">
-        <v>6.76524644466899</v>
+        <v>1.389289</v>
       </c>
       <c r="I12">
-        <v>0.2076164420808054</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J12">
-        <v>0.2076164420808054</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.71057019711211</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N12">
-        <v>1.71057019711211</v>
+        <v>5.291263</v>
       </c>
       <c r="O12">
-        <v>0.1613142772044078</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P12">
-        <v>0.1613142772044078</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q12">
-        <v>11.57242894436943</v>
+        <v>0.8167881646674444</v>
       </c>
       <c r="R12">
-        <v>11.57242894436943</v>
+        <v>7.351093482006999</v>
       </c>
       <c r="S12">
-        <v>0.03349149629001592</v>
+        <v>0.002099158268040096</v>
       </c>
       <c r="T12">
-        <v>0.03349149629001592</v>
+        <v>0.002948716497484604</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.76524644466899</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H13">
-        <v>6.76524644466899</v>
+        <v>1.389289</v>
       </c>
       <c r="I13">
-        <v>0.2076164420808054</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J13">
-        <v>0.2076164420808054</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.04756672882646</v>
+        <v>3.0507295</v>
       </c>
       <c r="N13">
-        <v>3.04756672882646</v>
+        <v>6.101459</v>
       </c>
       <c r="O13">
-        <v>0.2873989181635564</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P13">
-        <v>0.2873989181635564</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q13">
-        <v>20.61753997708471</v>
+        <v>1.412781645441833</v>
       </c>
       <c r="R13">
-        <v>20.61753997708471</v>
+        <v>8.476689872651001</v>
       </c>
       <c r="S13">
-        <v>0.05966874084699015</v>
+        <v>0.003630870769499926</v>
       </c>
       <c r="T13">
-        <v>0.05966874084699015</v>
+        <v>0.003400222746823569</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.039248735204421</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H14">
-        <v>8.039248735204421</v>
+        <v>20.394899</v>
       </c>
       <c r="I14">
-        <v>0.246713882939326</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J14">
-        <v>0.246713882939326</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.11164899610158</v>
+        <v>3.1122635</v>
       </c>
       <c r="N14">
-        <v>3.11164899610158</v>
+        <v>6.224527</v>
       </c>
       <c r="O14">
-        <v>0.2934421572218294</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P14">
-        <v>0.2934421572218294</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q14">
-        <v>25.01532025630973</v>
+        <v>21.15809991462883</v>
       </c>
       <c r="R14">
-        <v>25.01532025630973</v>
+        <v>126.948599487773</v>
       </c>
       <c r="S14">
-        <v>0.07239625402628973</v>
+        <v>0.05437664536911455</v>
       </c>
       <c r="T14">
-        <v>0.07239625402628973</v>
+        <v>0.05092241454395986</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.039248735204421</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H15">
-        <v>8.039248735204421</v>
+        <v>20.394899</v>
       </c>
       <c r="I15">
-        <v>0.246713882939326</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J15">
-        <v>0.246713882939326</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.73417441399742</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N15">
-        <v>2.73417441399742</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O15">
-        <v>0.2578446474102063</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P15">
-        <v>0.2578446474102063</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q15">
-        <v>21.98070819955705</v>
+        <v>20.48884696919355</v>
       </c>
       <c r="R15">
-        <v>21.98070819955705</v>
+        <v>184.399622722742</v>
       </c>
       <c r="S15">
-        <v>0.06361385415769343</v>
+        <v>0.05265665490574557</v>
       </c>
       <c r="T15">
-        <v>0.06361385415769343</v>
+        <v>0.07396752754993305</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.039248735204421</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H16">
-        <v>8.039248735204421</v>
+        <v>20.394899</v>
       </c>
       <c r="I16">
-        <v>0.246713882939326</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J16">
-        <v>0.246713882939326</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.71057019711211</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N16">
-        <v>1.71057019711211</v>
+        <v>0.049457</v>
       </c>
       <c r="O16">
-        <v>0.1613142772044078</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P16">
-        <v>0.1613142772044078</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q16">
-        <v>13.75169929361191</v>
+        <v>0.1120745022047778</v>
       </c>
       <c r="R16">
-        <v>13.75169929361191</v>
+        <v>1.008670519843</v>
       </c>
       <c r="S16">
-        <v>0.03979847170265025</v>
+        <v>0.0002880332112003903</v>
       </c>
       <c r="T16">
-        <v>0.03979847170265025</v>
+        <v>0.000404604214280157</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.039248735204421</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H17">
-        <v>8.039248735204421</v>
+        <v>20.394899</v>
       </c>
       <c r="I17">
-        <v>0.246713882939326</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J17">
-        <v>0.246713882939326</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>3.04756672882646</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N17">
-        <v>3.04756672882646</v>
+        <v>0.213661</v>
       </c>
       <c r="O17">
-        <v>0.2873989181635564</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P17">
-        <v>0.2873989181635564</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q17">
-        <v>24.50014697016919</v>
+        <v>0.4841771683598889</v>
       </c>
       <c r="R17">
-        <v>24.50014697016919</v>
+        <v>4.357594515239</v>
       </c>
       <c r="S17">
-        <v>0.0709053030526926</v>
+        <v>0.00124434284203018</v>
       </c>
       <c r="T17">
-        <v>0.0709053030526926</v>
+        <v>0.001747945508771511</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.01152113025883</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H18">
-        <v>6.01152113025883</v>
+        <v>20.394899</v>
       </c>
       <c r="I18">
-        <v>0.1844856116869792</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J18">
-        <v>0.1844856116869792</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.11164899610158</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N18">
-        <v>3.11164899610158</v>
+        <v>5.291263</v>
       </c>
       <c r="O18">
-        <v>0.2934421572218294</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P18">
-        <v>0.2934421572218294</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q18">
-        <v>18.70574369001332</v>
+        <v>11.99053049638189</v>
       </c>
       <c r="R18">
-        <v>18.70574369001332</v>
+        <v>107.914774467437</v>
       </c>
       <c r="S18">
-        <v>0.05413585586981592</v>
+        <v>0.03081584959046871</v>
       </c>
       <c r="T18">
-        <v>0.05413585586981592</v>
+        <v>0.04328744785702057</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.01152113025883</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H19">
-        <v>6.01152113025883</v>
+        <v>20.394899</v>
       </c>
       <c r="I19">
-        <v>0.1844856116869792</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J19">
-        <v>0.1844856116869792</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.73417441399742</v>
+        <v>3.0507295</v>
       </c>
       <c r="N19">
-        <v>2.73417441399742</v>
+        <v>6.101459</v>
       </c>
       <c r="O19">
-        <v>0.2578446474102063</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P19">
-        <v>0.2578446474102063</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q19">
-        <v>16.43654726355854</v>
+        <v>20.73977334294016</v>
       </c>
       <c r="R19">
-        <v>16.43654726355854</v>
+        <v>124.438640057641</v>
       </c>
       <c r="S19">
-        <v>0.04756862749768539</v>
+        <v>0.05330153958319922</v>
       </c>
       <c r="T19">
-        <v>0.04756862749768539</v>
+        <v>0.04991560395207135</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.01152113025883</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H20">
-        <v>6.01152113025883</v>
+        <v>25.486596</v>
       </c>
       <c r="I20">
-        <v>0.1844856116869792</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J20">
-        <v>0.1844856116869792</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.71057019711211</v>
+        <v>3.1122635</v>
       </c>
       <c r="N20">
-        <v>1.71057019711211</v>
+        <v>6.224527</v>
       </c>
       <c r="O20">
-        <v>0.1613142772044078</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P20">
-        <v>0.1613142772044078</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q20">
-        <v>10.28312888473046</v>
+        <v>26.440334156682</v>
       </c>
       <c r="R20">
-        <v>10.28312888473046</v>
+        <v>158.642004940092</v>
       </c>
       <c r="S20">
-        <v>0.0297601631038981</v>
+        <v>0.06795206940509456</v>
       </c>
       <c r="T20">
-        <v>0.0297601631038981</v>
+        <v>0.06363547114533047</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.01152113025883</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H21">
-        <v>6.01152113025883</v>
+        <v>25.486596</v>
       </c>
       <c r="I21">
-        <v>0.1844856116869792</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J21">
-        <v>0.1844856116869792</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.04756672882646</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N21">
-        <v>3.04756672882646</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O21">
-        <v>0.2873989181635564</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P21">
-        <v>0.2873989181635564</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q21">
-        <v>18.32051178621404</v>
+        <v>25.60399858855199</v>
       </c>
       <c r="R21">
-        <v>18.32051178621404</v>
+        <v>230.435987296968</v>
       </c>
       <c r="S21">
-        <v>0.05302096521557979</v>
+        <v>0.06580267400658152</v>
       </c>
       <c r="T21">
-        <v>0.05302096521557979</v>
+        <v>0.09243392143221761</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.87127167097911</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H22">
-        <v>6.87127167097911</v>
+        <v>25.486596</v>
       </c>
       <c r="I22">
-        <v>0.2108702156775774</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J22">
-        <v>0.2108702156775774</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>3.11164899610158</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N22">
-        <v>3.11164899610158</v>
+        <v>0.049457</v>
       </c>
       <c r="O22">
-        <v>0.2934421572218294</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P22">
-        <v>0.2934421572218294</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q22">
-        <v>21.38098559694337</v>
+        <v>0.140054508708</v>
       </c>
       <c r="R22">
-        <v>21.38098559694337</v>
+        <v>1.260490578372</v>
       </c>
       <c r="S22">
-        <v>0.06187821098226073</v>
+        <v>0.0003599422624474396</v>
       </c>
       <c r="T22">
-        <v>0.06187821098226073</v>
+        <v>0.0005056158478282139</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.87127167097911</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H23">
-        <v>6.87127167097911</v>
+        <v>25.486596</v>
       </c>
       <c r="I23">
-        <v>0.2108702156775774</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J23">
-        <v>0.2108702156775774</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>2.73417441399742</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N23">
-        <v>2.73417441399742</v>
+        <v>0.213661</v>
       </c>
       <c r="O23">
-        <v>0.2578446474102063</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P23">
-        <v>0.2578446474102063</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q23">
-        <v>18.78725519441638</v>
+        <v>0.605054620884</v>
       </c>
       <c r="R23">
-        <v>18.78725519441638</v>
+        <v>5.445491587956</v>
       </c>
       <c r="S23">
-        <v>0.05437175641069909</v>
+        <v>0.001554999772262418</v>
       </c>
       <c r="T23">
-        <v>0.05437175641069909</v>
+        <v>0.002184329572412884</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.87127167097911</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H24">
-        <v>6.87127167097911</v>
+        <v>25.486596</v>
       </c>
       <c r="I24">
-        <v>0.2108702156775774</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J24">
-        <v>0.2108702156775774</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.71057019711211</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N24">
-        <v>1.71057019711211</v>
+        <v>5.291263</v>
       </c>
       <c r="O24">
-        <v>0.1613142772044078</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P24">
-        <v>0.1613142772044078</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q24">
-        <v>11.75379253663759</v>
+        <v>14.984031378972</v>
       </c>
       <c r="R24">
-        <v>11.75379253663759</v>
+        <v>134.856282410748</v>
       </c>
       <c r="S24">
-        <v>0.03401637642596597</v>
+        <v>0.03850919334825053</v>
       </c>
       <c r="T24">
-        <v>0.03401637642596597</v>
+        <v>0.05409439367181711</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.87127167097911</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H25">
-        <v>6.87127167097911</v>
+        <v>25.486596</v>
       </c>
       <c r="I25">
-        <v>0.2108702156775774</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J25">
-        <v>0.2108702156775774</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.04756672882646</v>
+        <v>3.0507295</v>
       </c>
       <c r="N25">
-        <v>3.04756672882646</v>
+        <v>6.101459</v>
       </c>
       <c r="O25">
-        <v>0.2873989181635564</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P25">
-        <v>0.2873989181635564</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q25">
-        <v>20.94065892920373</v>
+        <v>25.917570090594</v>
       </c>
       <c r="R25">
-        <v>20.94065892920373</v>
+        <v>155.505420543564</v>
       </c>
       <c r="S25">
-        <v>0.06060387185865155</v>
+        <v>0.06660855763664271</v>
       </c>
       <c r="T25">
-        <v>0.06060387185865155</v>
+        <v>0.0623773048360007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.279227333333334</v>
+      </c>
+      <c r="H26">
+        <v>18.837682</v>
+      </c>
+      <c r="I26">
+        <v>0.1779710855497397</v>
+      </c>
+      <c r="J26">
+        <v>0.2034290786507157</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.1122635</v>
+      </c>
+      <c r="N26">
+        <v>6.224527</v>
+      </c>
+      <c r="O26">
+        <v>0.2822077032432218</v>
+      </c>
+      <c r="P26">
+        <v>0.2312074682901327</v>
+      </c>
+      <c r="Q26">
+        <v>19.54261003773567</v>
+      </c>
+      <c r="R26">
+        <v>117.255660226414</v>
+      </c>
+      <c r="S26">
+        <v>0.05022481129669496</v>
+      </c>
+      <c r="T26">
+        <v>0.04703432225142625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>6.279227333333334</v>
+      </c>
+      <c r="H27">
+        <v>18.837682</v>
+      </c>
+      <c r="I27">
+        <v>0.1779710855497397</v>
+      </c>
+      <c r="J27">
+        <v>0.2034290786507157</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.013819333333333</v>
+      </c>
+      <c r="N27">
+        <v>9.041457999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.2732811768830041</v>
+      </c>
+      <c r="P27">
+        <v>0.3358411994729183</v>
+      </c>
+      <c r="Q27">
+        <v>18.92445673559511</v>
+      </c>
+      <c r="R27">
+        <v>170.320110620356</v>
+      </c>
+      <c r="S27">
+        <v>0.04863614771017867</v>
+      </c>
+      <c r="T27">
+        <v>0.068319865781727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6.279227333333334</v>
+      </c>
+      <c r="H28">
+        <v>18.837682</v>
+      </c>
+      <c r="I28">
+        <v>0.1779710855497397</v>
+      </c>
+      <c r="J28">
+        <v>0.2034290786507157</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01648566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.049457</v>
+      </c>
+      <c r="O28">
+        <v>0.001494854830393808</v>
+      </c>
+      <c r="P28">
+        <v>0.001837059708990754</v>
+      </c>
+      <c r="Q28">
+        <v>0.1035172487415556</v>
+      </c>
+      <c r="R28">
+        <v>0.931655238674</v>
+      </c>
+      <c r="S28">
+        <v>0.000266040936904458</v>
+      </c>
+      <c r="T28">
+        <v>0.000373711364026341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>6.279227333333334</v>
+      </c>
+      <c r="H29">
+        <v>18.837682</v>
+      </c>
+      <c r="I29">
+        <v>0.1779710855497397</v>
+      </c>
+      <c r="J29">
+        <v>0.2034290786507157</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.07122033333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.213661</v>
+      </c>
+      <c r="O29">
+        <v>0.006457977190625623</v>
+      </c>
+      <c r="P29">
+        <v>0.007936349040230372</v>
+      </c>
+      <c r="Q29">
+        <v>0.4472086637557779</v>
+      </c>
+      <c r="R29">
+        <v>4.024877973802001</v>
+      </c>
+      <c r="S29">
+        <v>0.0011493332110711</v>
+      </c>
+      <c r="T29">
+        <v>0.001614484173104556</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>6.279227333333334</v>
+      </c>
+      <c r="H30">
+        <v>18.837682</v>
+      </c>
+      <c r="I30">
+        <v>0.1779710855497397</v>
+      </c>
+      <c r="J30">
+        <v>0.2034290786507157</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.763754333333333</v>
+      </c>
+      <c r="N30">
+        <v>5.291263</v>
+      </c>
+      <c r="O30">
+        <v>0.1599302435334539</v>
+      </c>
+      <c r="P30">
+        <v>0.1965417649063539</v>
+      </c>
+      <c r="Q30">
+        <v>11.07501441915178</v>
+      </c>
+      <c r="R30">
+        <v>99.67512977236601</v>
+      </c>
+      <c r="S30">
+        <v>0.02846295905388303</v>
+      </c>
+      <c r="T30">
+        <v>0.03998231015128513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6.279227333333334</v>
+      </c>
+      <c r="H31">
+        <v>18.837682</v>
+      </c>
+      <c r="I31">
+        <v>0.1779710855497397</v>
+      </c>
+      <c r="J31">
+        <v>0.2034290786507157</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.0507295</v>
+      </c>
+      <c r="N31">
+        <v>6.101459</v>
+      </c>
+      <c r="O31">
+        <v>0.2766280443193008</v>
+      </c>
+      <c r="P31">
+        <v>0.2266361585813741</v>
+      </c>
+      <c r="Q31">
+        <v>19.15622406300633</v>
+      </c>
+      <c r="R31">
+        <v>114.937344378038</v>
+      </c>
+      <c r="S31">
+        <v>0.04923179334100745</v>
+      </c>
+      <c r="T31">
+        <v>0.04610438492914642</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>8.750795</v>
+      </c>
+      <c r="H32">
+        <v>17.50159</v>
+      </c>
+      <c r="I32">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J32">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.1122635</v>
+      </c>
+      <c r="N32">
+        <v>6.224527</v>
+      </c>
+      <c r="O32">
+        <v>0.2822077032432218</v>
+      </c>
+      <c r="P32">
+        <v>0.2312074682901327</v>
+      </c>
+      <c r="Q32">
+        <v>27.2347798744825</v>
+      </c>
+      <c r="R32">
+        <v>108.93911949793</v>
+      </c>
+      <c r="S32">
+        <v>0.06999380723770501</v>
+      </c>
+      <c r="T32">
+        <v>0.04369833952884113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>8.750795</v>
+      </c>
+      <c r="H33">
+        <v>17.50159</v>
+      </c>
+      <c r="I33">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J33">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.013819333333333</v>
+      </c>
+      <c r="N33">
+        <v>9.041457999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.2732811768830041</v>
+      </c>
+      <c r="P33">
+        <v>0.3358411994729183</v>
+      </c>
+      <c r="Q33">
+        <v>26.37331515303666</v>
+      </c>
+      <c r="R33">
+        <v>158.23989091822</v>
+      </c>
+      <c r="S33">
+        <v>0.0677798295249107</v>
+      </c>
+      <c r="T33">
+        <v>0.06347417265918467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>8.750795</v>
+      </c>
+      <c r="H34">
+        <v>17.50159</v>
+      </c>
+      <c r="I34">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J34">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.01648566666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.049457</v>
+      </c>
+      <c r="O34">
+        <v>0.001494854830393808</v>
+      </c>
+      <c r="P34">
+        <v>0.001837059708990754</v>
+      </c>
+      <c r="Q34">
+        <v>0.1442626894383333</v>
+      </c>
+      <c r="R34">
+        <v>0.86557613663</v>
+      </c>
+      <c r="S34">
+        <v>0.0003707573522780848</v>
+      </c>
+      <c r="T34">
+        <v>0.0003472053021985279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>8.750795</v>
+      </c>
+      <c r="H35">
+        <v>17.50159</v>
+      </c>
+      <c r="I35">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J35">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.07122033333333334</v>
+      </c>
+      <c r="N35">
+        <v>0.213661</v>
+      </c>
+      <c r="O35">
+        <v>0.006457977190625623</v>
+      </c>
+      <c r="P35">
+        <v>0.007936349040230372</v>
+      </c>
+      <c r="Q35">
+        <v>0.6232345368316667</v>
+      </c>
+      <c r="R35">
+        <v>3.73940722099</v>
+      </c>
+      <c r="S35">
+        <v>0.001601722438584789</v>
+      </c>
+      <c r="T35">
+        <v>0.001499974363043445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>8.750795</v>
+      </c>
+      <c r="H36">
+        <v>17.50159</v>
+      </c>
+      <c r="I36">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J36">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.763754333333333</v>
+      </c>
+      <c r="N36">
+        <v>5.291263</v>
+      </c>
+      <c r="O36">
+        <v>0.1599302435334539</v>
+      </c>
+      <c r="P36">
+        <v>0.1965417649063539</v>
+      </c>
+      <c r="Q36">
+        <v>15.43425260136167</v>
+      </c>
+      <c r="R36">
+        <v>92.60551560816999</v>
+      </c>
+      <c r="S36">
+        <v>0.03966626888179623</v>
+      </c>
+      <c r="T36">
+        <v>0.03714650239454251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>8.750795</v>
+      </c>
+      <c r="H37">
+        <v>17.50159</v>
+      </c>
+      <c r="I37">
+        <v>0.2480223127622444</v>
+      </c>
+      <c r="J37">
+        <v>0.1890005537105138</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.0507295</v>
+      </c>
+      <c r="N37">
+        <v>6.101459</v>
+      </c>
+      <c r="O37">
+        <v>0.2766280443193008</v>
+      </c>
+      <c r="P37">
+        <v>0.2266361585813741</v>
+      </c>
+      <c r="Q37">
+        <v>26.6963084549525</v>
+      </c>
+      <c r="R37">
+        <v>106.78523381981</v>
+      </c>
+      <c r="S37">
+        <v>0.06860992732696963</v>
+      </c>
+      <c r="T37">
+        <v>0.04283435946270351</v>
       </c>
     </row>
   </sheetData>
